--- a/偏振/工作簿1.xlsx
+++ b/偏振/工作簿1.xlsx
@@ -2501,6 +2501,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>偏振状态</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2510,25 +2534,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2837,6 +2842,43 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>角度</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2897,6 +2939,46 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>电压</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(mV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2951,37 +3033,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5093,8 +5144,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CN82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
